--- a/4133220.xlsx
+++ b/4133220.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRU\Desktop\4133220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRU\Desktop\4133220-3-63-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3395EA5C-7878-455F-94C0-154CA3CB4EC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2F18C-BE81-418D-9938-C22D8E912390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>รหัสวิชา  4133220  การออกแบบสื่อเชิงโต้ตอบและเว็บ  หน่วยกิต  3(2-2-5)  Sec  01</t>
   </si>
@@ -395,19 +395,43 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -433,30 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1076,77 +1076,77 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="3" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="1:21" ht="20.45" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="26" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
     </row>
     <row r="4" spans="1:21" ht="2.25" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="27" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1165,9 +1165,9 @@
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="15.95" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -1188,27 +1188,27 @@
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="3" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
     </row>
     <row r="7" spans="1:21" ht="15.2" customHeight="1">
       <c r="A7" s="1"/>
@@ -1216,45 +1216,45 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:21" ht="6" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
     </row>
     <row r="9" spans="1:21" ht="0.75" customHeight="1">
       <c r="A9" s="1"/>
@@ -1281,57 +1281,57 @@
     </row>
     <row r="10" spans="1:21" ht="18.2" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:21" ht="18.95" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:21" ht="3" customHeight="1">
       <c r="A12" s="1"/>
@@ -1361,45 +1361,45 @@
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
     </row>
     <row r="14" spans="1:21" ht="18.2" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="35" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="21">
         <v>1</v>
       </c>
       <c r="G14" s="14">
@@ -1457,10 +1457,10 @@
       <c r="D15" s="11">
         <v>610112418032</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
         <v>23</v>
@@ -1480,7 +1480,9 @@
       <c r="M15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>-5</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1498,10 +1500,10 @@
       <c r="D16" s="11">
         <v>610112418033</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
         <v>25</v>
@@ -1537,10 +1539,10 @@
       <c r="D17" s="11">
         <v>620112418108</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
         <v>23</v>
@@ -1576,10 +1578,10 @@
       <c r="D18" s="11">
         <v>620112418038</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
         <v>23</v>
@@ -1599,7 +1601,9 @@
       <c r="M18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -1617,8 +1621,8 @@
       <c r="D19" s="11">
         <v>44</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>23</v>
@@ -1646,8 +1650,8 @@
       <c r="D20" s="11">
         <v>54</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>23</v>
@@ -1671,14 +1675,14 @@
       <c r="B21" s="3">
         <v>7</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="32"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="15"/>
       <c r="H21" s="4" t="s">
         <v>23</v>
@@ -1698,7 +1702,9 @@
       <c r="M21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1712,14 +1718,14 @@
       <c r="B22" s="3">
         <v>8</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="32"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="15"/>
       <c r="H22" s="4" t="s">
         <v>23</v>
@@ -1751,14 +1757,14 @@
       <c r="B23" s="3">
         <v>9</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="15"/>
       <c r="H23" s="4" t="s">
         <v>23</v>
@@ -1778,7 +1784,9 @@
       <c r="M23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1792,14 +1800,14 @@
       <c r="B24" s="3">
         <v>10</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="15"/>
       <c r="H24" s="4" t="s">
         <v>23</v>
@@ -1819,7 +1827,9 @@
       <c r="M24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -1833,14 +1843,14 @@
       <c r="B25" s="3">
         <v>11</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="32"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="15"/>
       <c r="H25" s="4" t="s">
         <v>23</v>
@@ -1856,7 +1866,9 @@
         <v>23</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <v>-5</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -1870,14 +1882,14 @@
       <c r="B26" s="3">
         <v>12</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="15"/>
       <c r="H26" s="4">
         <v>-10</v>
@@ -1897,7 +1909,9 @@
       <c r="M26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -1927,10 +1941,10 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="21" t="s">
+      <c r="S27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="T27" s="21"/>
+      <c r="T27" s="22"/>
       <c r="U27" s="16"/>
     </row>
     <row r="28" spans="1:21" ht="0.75" customHeight="1">
@@ -1952,8 +1966,8 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
       <c r="U28" s="1"/>
     </row>
   </sheetData>

--- a/4133220.xlsx
+++ b/4133220.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRU\Desktop\4133220-3-63-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2F18C-BE81-418D-9938-C22D8E912390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEA2DD3-5B81-4AF3-B44B-7682A94B983F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>รหัสวิชา  4133220  การออกแบบสื่อเชิงโต้ตอบและเว็บ  หน่วยกิต  3(2-2-5)  Sec  01</t>
   </si>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1483,7 +1483,9 @@
       <c r="N15" s="7">
         <v>-5</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="O15" s="7">
+        <v>-5</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1522,7 +1524,9 @@
         <v>23</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="7">
+        <v>-5</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -1561,7 +1565,9 @@
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1705,7 +1711,9 @@
       <c r="N21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1744,7 +1752,9 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -1787,7 +1797,9 @@
       <c r="N23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -1830,7 +1842,9 @@
       <c r="N24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1912,7 +1926,9 @@
       <c r="N26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
